--- a/Шангина А. тесты ВК.xlsx
+++ b/Шангина А. тесты ВК.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Documents\GitHub\anette-project-r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8945E4-97B6-456F-B137-3E3D17BD47E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F9C597-1CC3-44D5-9CE8-15265BD34243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="112">
   <si>
     <t>passed</t>
   </si>
@@ -498,7 +498,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +669,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -912,9 +921,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -941,6 +947,21 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -956,21 +977,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1368,10 +1375,10 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1415,7 +1422,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="15">
         <f>COUNTIF(L$8:L$42,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="15">
@@ -1460,7 +1467,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="16">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="16">
@@ -1503,7 +1510,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="21">
+        <v>43944</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="21"/>
       <c r="O3" s="10"/>
@@ -1587,43 +1596,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="52"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="52"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="52"/>
+      <c r="T6" s="44"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1633,29 +1642,29 @@
     </row>
     <row r="7" spans="1:124" ht="18.75" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="54"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="52"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="52"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="52"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="52"/>
+      <c r="R7" s="44"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="52"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1668,10 +1677,10 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1685,7 +1694,9 @@
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1707,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1721,7 +1732,9 @@
       <c r="I9" s="27"/>
       <c r="J9" s="19"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1743,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1757,7 +1770,9 @@
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -1779,7 +1794,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="29"/>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1793,119 +1808,121 @@
       <c r="I11" s="31"/>
       <c r="J11" s="30"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="35"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="35"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="35"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="35"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="35"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="35"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="35"/>
-      <c r="BR11" s="34"/>
-      <c r="BS11" s="35"/>
-      <c r="BT11" s="34"/>
-      <c r="BU11" s="35"/>
-      <c r="BV11" s="34"/>
-      <c r="BW11" s="35"/>
-      <c r="BX11" s="34"/>
-      <c r="BY11" s="35"/>
-      <c r="BZ11" s="36"/>
-      <c r="CA11" s="35"/>
-      <c r="CB11" s="34"/>
-      <c r="CC11" s="35"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="35"/>
-      <c r="CF11" s="34"/>
-      <c r="CG11" s="35"/>
-      <c r="CH11" s="36"/>
-      <c r="CI11" s="35"/>
-      <c r="CJ11" s="34"/>
-      <c r="CK11" s="35"/>
-      <c r="CL11" s="34"/>
-      <c r="CM11" s="35"/>
-      <c r="CN11" s="34"/>
-      <c r="CO11" s="35"/>
-      <c r="CP11" s="34"/>
-      <c r="CQ11" s="35"/>
-      <c r="CR11" s="34"/>
-      <c r="CS11" s="35"/>
-      <c r="CT11" s="34"/>
-      <c r="CU11" s="35"/>
-      <c r="CV11" s="34"/>
-      <c r="CW11" s="35"/>
-      <c r="CX11" s="34"/>
-      <c r="CY11" s="33"/>
-      <c r="CZ11" s="34"/>
-      <c r="DA11" s="33"/>
-      <c r="DB11" s="34"/>
-      <c r="DC11" s="33"/>
-      <c r="DD11" s="34"/>
-      <c r="DE11" s="33"/>
-      <c r="DF11" s="34"/>
-      <c r="DG11" s="33"/>
-      <c r="DH11" s="34"/>
-      <c r="DI11" s="33"/>
-      <c r="DJ11" s="34"/>
-      <c r="DK11" s="34"/>
-      <c r="DL11" s="34"/>
-      <c r="DM11" s="34"/>
-      <c r="DN11" s="38"/>
-      <c r="DO11" s="34"/>
-      <c r="DP11" s="39"/>
-      <c r="DQ11" s="39"/>
-      <c r="DR11" s="39"/>
-      <c r="DS11" s="39"/>
-      <c r="DT11" s="39"/>
+      <c r="L11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="34"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="34"/>
+      <c r="BP11" s="33"/>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="34"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="34"/>
+      <c r="BV11" s="33"/>
+      <c r="BW11" s="34"/>
+      <c r="BX11" s="33"/>
+      <c r="BY11" s="34"/>
+      <c r="BZ11" s="35"/>
+      <c r="CA11" s="34"/>
+      <c r="CB11" s="33"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="34"/>
+      <c r="CF11" s="33"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="35"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="33"/>
+      <c r="CK11" s="34"/>
+      <c r="CL11" s="33"/>
+      <c r="CM11" s="34"/>
+      <c r="CN11" s="33"/>
+      <c r="CO11" s="34"/>
+      <c r="CP11" s="33"/>
+      <c r="CQ11" s="34"/>
+      <c r="CR11" s="33"/>
+      <c r="CS11" s="34"/>
+      <c r="CT11" s="33"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="33"/>
+      <c r="CW11" s="34"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="32"/>
+      <c r="CZ11" s="33"/>
+      <c r="DA11" s="32"/>
+      <c r="DB11" s="33"/>
+      <c r="DC11" s="32"/>
+      <c r="DD11" s="33"/>
+      <c r="DE11" s="32"/>
+      <c r="DF11" s="33"/>
+      <c r="DG11" s="32"/>
+      <c r="DH11" s="33"/>
+      <c r="DI11" s="32"/>
+      <c r="DJ11" s="33"/>
+      <c r="DK11" s="33"/>
+      <c r="DL11" s="33"/>
+      <c r="DM11" s="33"/>
+      <c r="DN11" s="37"/>
+      <c r="DO11" s="33"/>
+      <c r="DP11" s="38"/>
+      <c r="DQ11" s="38"/>
+      <c r="DR11" s="38"/>
+      <c r="DS11" s="38"/>
+      <c r="DT11" s="38"/>
     </row>
     <row r="12" spans="1:124" ht="93.75" customHeight="1">
       <c r="A12" s="11"/>
@@ -1913,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1927,7 +1944,9 @@
       <c r="I12" s="20"/>
       <c r="J12" s="19"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="10"/>
@@ -1948,8 +1967,8 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1963,7 +1982,9 @@
       <c r="I13" s="20"/>
       <c r="J13" s="19"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5"/>
       <c r="O13" s="10"/>
@@ -1985,7 +2006,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1999,7 +2020,9 @@
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="5"/>
       <c r="O14" s="10"/>
@@ -2021,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -2035,7 +2058,9 @@
       <c r="I15" s="20"/>
       <c r="J15" s="19"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="5"/>
       <c r="O15" s="10"/>
@@ -2057,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -2092,7 +2117,7 @@
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -2106,7 +2131,9 @@
       <c r="I17" s="20"/>
       <c r="J17" s="19"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="5"/>
       <c r="O17" s="10"/>
@@ -2127,10 +2154,10 @@
       <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -2144,7 +2171,9 @@
       <c r="I18" s="20"/>
       <c r="J18" s="19"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="5"/>
       <c r="O18" s="10"/>
@@ -2168,7 +2197,7 @@
       <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="42" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -2204,7 +2233,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="42" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -2240,7 +2269,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="42" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2276,7 +2305,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="42" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -2312,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -2348,7 +2377,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="42" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -2384,7 +2413,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="42" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -2420,7 +2449,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="42" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -2456,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -2492,7 +2521,7 @@
       <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2530,7 +2559,7 @@
       <c r="C29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="43" t="s">
         <v>79</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -2566,7 +2595,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="43" t="s">
         <v>93</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -2602,7 +2631,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="43" t="s">
         <v>81</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -2638,7 +2667,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="43" t="s">
         <v>82</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -2674,7 +2703,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="43" t="s">
         <v>83</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -2710,7 +2739,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="43" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -2746,7 +2775,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="43" t="s">
         <v>105</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -2782,7 +2811,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="43" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -2818,7 +2847,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="43" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -3457,6 +3486,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3464,15 +3499,9 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 N12:N42 N8:N10 L8:L42" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Result</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11" xr:uid="{00000000-0002-0000-0100-000001000000}">
